--- a/Dokumentation/Sprint03.xlsx
+++ b/Dokumentation/Sprint03.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3600" windowWidth="38400" windowHeight="21160" tabRatio="500"/>
+    <workbookView xWindow="36020" yWindow="-960" windowWidth="25600" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Krav</t>
   </si>
@@ -82,13 +82,61 @@
   </si>
   <si>
     <t>SPRINT 3</t>
+  </si>
+  <si>
+    <t>Vecka 14</t>
+  </si>
+  <si>
+    <t>Vecka 15</t>
+  </si>
+  <si>
+    <t>Vecka 16</t>
+  </si>
+  <si>
+    <t>Vecka 17</t>
+  </si>
+  <si>
+    <t>Vecka 18</t>
+  </si>
+  <si>
+    <t>Vecka 19</t>
+  </si>
+  <si>
+    <t>Vecka 20</t>
+  </si>
+  <si>
+    <t>Vecka 21</t>
+  </si>
+  <si>
+    <t>Vecka 22</t>
+  </si>
+  <si>
+    <t>Vecka 23</t>
+  </si>
+  <si>
+    <t>Uppstart</t>
+  </si>
+  <si>
+    <t>Inception</t>
+  </si>
+  <si>
+    <t>Elaboration</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Transition</t>
+  </si>
+  <si>
+    <t>Avslut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,6 +163,12 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -156,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -164,6 +218,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F22"/>
+  <dimension ref="A2:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -546,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -557,13 +616,13 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -648,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -661,7 +720,7 @@
       </c>
       <c r="F15">
         <f>SUM(F5:F13)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -669,18 +728,128 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="105">
+    <row r="18" spans="3:7" ht="105">
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:7">
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:7">
       <c r="C22" s="2"/>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="E31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="E32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7">
+      <c r="E33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7">
+      <c r="E34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7">
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7">
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7">
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7">
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7">
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7">
+      <c r="E40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
